--- a/cox/preogress.xlsx
+++ b/cox/preogress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lewis\OneDrive - The Ohio State University\Desktop\math\cox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8111A695-D5FB-4E76-B145-80BB95C4BB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256AB0CD-CA91-47D3-B1CD-61CD179CB63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{75BD9C03-A5F2-4903-888C-3CBB1CF69E5A}"/>
   </bookViews>
@@ -685,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8EA604-A79F-4706-A612-0E7EC04B1383}">
   <dimension ref="A1:BU202"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="53" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="53" workbookViewId="0">
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,13 +1011,13 @@
       <c r="K4" s="4">
         <v>9</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="3">
         <v>10</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <v>11</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="3">
         <v>12</v>
       </c>
       <c r="O4" s="4">
@@ -1099,7 +1099,7 @@
         <f t="array" ref="C5:U5">_xlfn.SEQUENCE(1,19,1,1)</f>
         <v>1</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>2</v>
       </c>
       <c r="E5" s="4">

--- a/cox/preogress.xlsx
+++ b/cox/preogress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lewis\OneDrive - The Ohio State University\Desktop\math\cox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43F05FA-FA8C-47B5-9495-62E4C6A1A011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307AEAA6-E2BB-4FD1-B1BB-8AEC9D605DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{75BD9C03-A5F2-4903-888C-3CBB1CF69E5A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{75BD9C03-A5F2-4903-888C-3CBB1CF69E5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -331,7 +331,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -346,6 +346,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -685,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8EA604-A79F-4706-A612-0E7EC04B1383}">
   <dimension ref="A1:BU202"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="53" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="53" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,10 +785,10 @@
       <c r="BU1" s="2"/>
     </row>
     <row r="2" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" cm="1">
@@ -871,8 +877,8 @@
       <c r="BU2" s="2"/>
     </row>
     <row r="3" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="3" cm="1">
@@ -979,8 +985,8 @@
       <c r="BU3" s="2"/>
     </row>
     <row r="4" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="3" cm="1">
@@ -1091,8 +1097,8 @@
       <c r="BU4" s="2"/>
     </row>
     <row r="5" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="2" cm="1">
@@ -1207,8 +1213,8 @@
       <c r="BU5" s="2"/>
     </row>
     <row r="6" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="3" cm="1">
@@ -1227,7 +1233,7 @@
       <c r="G6" s="2">
         <v>5</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="3">
         <v>6</v>
       </c>
       <c r="I6" s="3">
@@ -1245,19 +1251,19 @@
       <c r="M6" s="3">
         <v>11</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="3">
         <v>12</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="3">
         <v>13</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="3">
         <v>14</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="3">
         <v>15</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="3">
         <v>16</v>
       </c>
       <c r="S6" s="2">
@@ -1322,7 +1328,7 @@
       <c r="A7" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="2" cm="1">
@@ -1335,10 +1341,10 @@
       <c r="E7" s="2">
         <v>3</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>4</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
         <v>5</v>
       </c>
       <c r="H7" s="2"/>
@@ -1413,7 +1419,7 @@
       <c r="B8" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="2" cm="1">
+      <c r="C8" s="3" cm="1">
         <f t="array" ref="C8:O8">_xlfn.SEQUENCE(1,13,1,1)</f>
         <v>1</v>
       </c>
